--- a/female_coercion/virgin_data.xlsx
+++ b/female_coercion/virgin_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jy33\OneDrive\Desktop\R\female_fitness\female_coercion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740FD4C0-A412-4759-B2AC-AC1BE44E8E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107EF28E-3982-49D3-90FB-C966F6960206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{25E354D2-985F-4EE1-AE9E-8A5EC7F8DD19}"/>
   </bookViews>
@@ -4413,7 +4413,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
